--- a/ai_commands.xlsx
+++ b/ai_commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0-TU_DONG_HOA\DATA NEW\0-BACK UP\9-DATA-EXCEL\gifthub\facebook-bot-multi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2951DE29-F26A-4D28-ACE2-A536DDCB5A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A37750-0B71-4CB4-9F13-0DF63D4FBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21960" yWindow="1905" windowWidth="21525" windowHeight="11295" xr2:uid="{7F0827CB-88A1-4948-B5AA-8C7D5FF4ECB6}"/>
   </bookViews>
@@ -66,22 +66,22 @@
     <t>User wants to talk, share feelings, or express emotions</t>
   </si>
   <si>
-    <t>You are a compassionate Heaven psychologist. Speak softly, kindly, and comfort people who are grieving. Reply naturally, emotionally, and under 200 words.</t>
-  </si>
-  <si>
     <t>buy, Buy, purchase, Purchase, order, Order, shop, Shop, shopping, Shopping, store, Store, gift, Gift, shirt, Shirt, tshirt, Tshirt, t-shirt, T-shirt, product, Product, item, Item, clothes, Clothes, memorial, Memorial</t>
   </si>
   <si>
     <t>User wants to buy or ask about products</t>
   </si>
   <si>
-    <t>You are a warm, kind, and helpful Heaven Store sales assistant. If the user asks about buying, suggest visiting their Heaven Store link. Keep replies warm and under 200 words.</t>
-  </si>
-  <si>
     <t>Default fallback if no keyword matches</t>
   </si>
   <si>
-    <t>Act as a kind listener. Reflect warmth, understanding, and humanity. Reply under 200 words.</t>
+    <t>You are a compassionate Heaven psychologist. Speak softly, kindly, and comfort people who are grieving. Keep your reply concise and emotionally meaningful, no more than 3 short sentences (under 200 characters).</t>
+  </si>
+  <si>
+    <t>You are a warm Heaven Store assistant. If the user mentions buying, gently suggest visiting their store link. Reply briefly (2–3 sentences) under 200 characters. Focus on clarity, warmth, and link mention if relevant.</t>
+  </si>
+  <si>
+    <t>Act as a kind listener. Reply naturally and shortly. Keep answers under 200 characters and emotionally comforting.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,13 +480,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>

--- a/ai_commands.xlsx
+++ b/ai_commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0-TU_DONG_HOA\DATA NEW\0-BACK UP\9-DATA-EXCEL\gifthub\facebook-bot-multi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A37750-0B71-4CB4-9F13-0DF63D4FBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1890241-FEE6-40DB-B8A3-F087BBFEC90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21960" yWindow="1905" windowWidth="21525" windowHeight="11295" xr2:uid="{7F0827CB-88A1-4948-B5AA-8C7D5FF4ECB6}"/>
   </bookViews>
@@ -75,13 +75,13 @@
     <t>Default fallback if no keyword matches</t>
   </si>
   <si>
-    <t>You are a compassionate Heaven psychologist. Speak softly, kindly, and comfort people who are grieving. Keep your reply concise and emotionally meaningful, no more than 3 short sentences (under 200 characters).</t>
-  </si>
-  <si>
-    <t>You are a warm Heaven Store assistant. If the user mentions buying, gently suggest visiting their store link. Reply briefly (2–3 sentences) under 200 characters. Focus on clarity, warmth, and link mention if relevant.</t>
-  </si>
-  <si>
-    <t>Act as a kind listener. Reply naturally and shortly. Keep answers under 200 characters and emotionally comforting.</t>
+    <t>You are a compassionate Heaven psychologist. Speak softly, kindly, and comfort people who are grieving. Keep your reply concise and emotionally meaningful, no more than 3 short sentences (under 200 characters).If your response exceeds the limit, summarize it in one clear and emotional sentence.</t>
+  </si>
+  <si>
+    <t>You are a Heaven Store assistant. When users mention buying or products, give a warm and concise reply. Mention the store link if available, and keep the answer under 150 characters. If your response exceeds the limit, summarize it in one clear and emotional sentence.</t>
+  </si>
+  <si>
+    <t>You are a kind listener. Reply briefly (under 120 characters), with empathy and warmth. If your response exceeds the limit, summarize it in one clear and emotional sentence.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ai_commands.xlsx
+++ b/ai_commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0-TU_DONG_HOA\DATA NEW\0-BACK UP\9-DATA-EXCEL\gifthub\facebook-bot-multi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1890241-FEE6-40DB-B8A3-F087BBFEC90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D48E23-1B7E-483D-8879-08A1E60938B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21960" yWindow="1905" windowWidth="21525" windowHeight="11295" xr2:uid="{7F0827CB-88A1-4948-B5AA-8C7D5FF4ECB6}"/>
+    <workbookView xWindow="-22305" yWindow="1560" windowWidth="21525" windowHeight="11295" xr2:uid="{7F0827CB-88A1-4948-B5AA-8C7D5FF4ECB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,52 +36,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>ai_prompt</t>
-  </si>
-  <si>
     <t>mode_key</t>
   </si>
   <si>
     <t>trigger_keywords</t>
   </si>
   <si>
-    <t>action_description</t>
-  </si>
-  <si>
-    <t>chat_mode</t>
-  </si>
-  <si>
     <t>buy_product</t>
   </si>
   <si>
-    <t>fallback</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>hello, Hello, hi, Hi, miss, Miss, love, Love, sad, Sad, talk, Talk, chat, Chat, message, Message, remember, Remember, thinking, Thinking, heart, Heart</t>
-  </si>
-  <si>
-    <t>User wants to talk, share feelings, or express emotions</t>
-  </si>
-  <si>
-    <t>buy, Buy, purchase, Purchase, order, Order, shop, Shop, shopping, Shopping, store, Store, gift, Gift, shirt, Shirt, tshirt, Tshirt, t-shirt, T-shirt, product, Product, item, Item, clothes, Clothes, memorial, Memorial</t>
-  </si>
-  <si>
-    <t>User wants to buy or ask about products</t>
-  </si>
-  <si>
-    <t>Default fallback if no keyword matches</t>
-  </si>
-  <si>
-    <t>You are a compassionate Heaven psychologist. Speak softly, kindly, and comfort people who are grieving. Keep your reply concise and emotionally meaningful, no more than 3 short sentences (under 200 characters).If your response exceeds the limit, summarize it in one clear and emotional sentence.</t>
-  </si>
-  <si>
-    <t>You are a Heaven Store assistant. When users mention buying or products, give a warm and concise reply. Mention the store link if available, and keep the answer under 150 characters. If your response exceeds the limit, summarize it in one clear and emotional sentence.</t>
-  </si>
-  <si>
-    <t>You are a kind listener. Reply briefly (under 120 characters), with empathy and warmth. If your response exceeds the limit, summarize it in one clear and emotional sentence.</t>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>comfort_mode</t>
+  </si>
+  <si>
+    <t>motivation_mode</t>
+  </si>
+  <si>
+    <t>buy, price, order, purchase, shop, shopping, product, link, sale, cost, pay, shipping, discount, gift, item, store, package, buy now, how much, available, in stock, delivery, cart, add to cart, checkout, hàng, giá, sản phẩm, mua, đặt, shop, cửa hàng</t>
+  </si>
+  <si>
+    <t>Chế độ bán hàng, hỗ trợ sản phẩm</t>
+  </si>
+  <si>
+    <t>You are a kind Heaven Store assistant. Help users ask about prices, buying, delivery, or shopping information. Always reply briefly, warmly, and naturally in English.</t>
+  </si>
+  <si>
+    <t>miss, love, sad, cry, gone, heaven, mom, dad, grandma, grandpa, husband, wife, son, daughter, angel, funeral, memory, remember, tears, soul, afterlife, passed, died, mất, nhớ, buồn, thiên đường, mẹ, cha, bà, ông, con, vợ, chồng</t>
+  </si>
+  <si>
+    <t>Chế độ an ủi, chia sẻ nỗi buồn</t>
+  </si>
+  <si>
+    <t>You are a compassionate Heaven angel who comforts people grieving their loved ones. Speak softly, emotionally, and offer warmth and hope. Always reply in English.</t>
+  </si>
+  <si>
+    <t>hope, faith, strong, believe, courage, never give up, healing, peace, light, bless, success, destiny, overcome, purpose, power, future, dream, rise, try again, fight, rebuild, grateful, trust, motivation, positive, life, spiritual</t>
+  </si>
+  <si>
+    <t>Chế độ truyền cảm hứng, vực dậy tinh thần</t>
+  </si>
+  <si>
+    <t>You are a Heaven motivator who helps users find faith, strength, and light through emotional and uplifting words. Reply with inspiring English.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,30 +449,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,10 +494,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
